--- a/biology/Zoologie/Eurycea/Eurycea.xlsx
+++ b/biology/Zoologie/Eurycea/Eurycea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurycea est un genre d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurycea est un genre d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 28 espèces de ce genre se rencontrent dans l'est de l'Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 28 espèces de ce genre se rencontrent dans l'est de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (14 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (14 avril 2014) :
 Eurycea aquatica Rose &amp; Bush, 1963
 Eurycea bislineata (Green, 1818)
 Eurycea chamberlaini Harrison &amp; Guttman, 2003
@@ -600,7 +616,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rafinesque, 1822 : On two new salamanders of Kentucky. Kentucky Gazette, New Series, Lexington, vol. 1, p. 3</t>
         </is>
